--- a/Program/Schedual.xlsx
+++ b/Program/Schedual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
     <t>Done By</t>
   </si>
   <si>
-    <t>UI for Create Staff, TimeTable, Appointment</t>
-  </si>
-  <si>
-    <t>UI for Login</t>
-  </si>
-  <si>
     <t>Thur</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>Design Sequence, Compile User Stories and Use Case</t>
+  </si>
+  <si>
+    <t>UI for Create Staff TimeTable, Appointment</t>
+  </si>
+  <si>
+    <t>UI for Login, Avilibilty TimeTable</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,10 +393,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -404,10 +404,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -415,10 +415,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,10 +426,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Schedual.xlsx
+++ b/Program/Schedual.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Niall</t>
   </si>
@@ -52,6 +52,27 @@
   </si>
   <si>
     <t>UI for Login, Avilibilty TimeTable</t>
+  </si>
+  <si>
+    <t>Shit Coocoo for Coco puffs Wants Done</t>
+  </si>
+  <si>
+    <t>Tue 31st</t>
+  </si>
+  <si>
+    <t>All Ui's in one project</t>
+  </si>
+  <si>
+    <t>Login page to function</t>
+  </si>
+  <si>
+    <t>Navigate between forms</t>
+  </si>
+  <si>
+    <t>Register patient to work</t>
+  </si>
+  <si>
+    <t>Optional 31st</t>
   </si>
 </sst>
 </file>
@@ -369,14 +390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -432,6 +454,41 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
